--- a/actividad2_con_graficos.xlsx
+++ b/actividad2_con_graficos.xlsx
@@ -88,7 +88,7 @@
     <t>[10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29]</t>
   </si>
   <si>
-    <t>arr1=[7 4 6 7 6], arr2=[ 9 10  2  7  3], producto=[63 40 12 49 18]</t>
+    <t>arr1=[9 3 8 1 6], arr2=[3 7 1 6 4], producto=[27 21  8  6 24]</t>
   </si>
   <si>
     <t>Matriz:
@@ -105,25 +105,25 @@
   </si>
   <si>
     <t>Array:
-[0.67436982 0.48497888 0.56415476 0.62919227 0.321997   0.81162495
- 0.27682636 0.06012934 0.8644245  0.10816794 0.0651109  0.46254131
- 0.91544711 0.05308137 0.58146362 0.44001694 0.38302904 0.73345089
- 0.72564128 0.72516366 0.93672037 0.69366102 0.0016218  0.53420911
- 0.75244005 0.82672831 0.49419057 0.90626677 0.68477372 0.90858184
- 0.03035462 0.12345874 0.06554158 0.40000371 0.14336681 0.52702223
- 0.8433053  0.88685577 0.29733084 0.86689097 0.44857169 0.75526537
- 0.85412341 0.45162571 0.38929606 0.25391213 0.435258   0.72173702
- 0.99190936 0.57236739 0.70149663 0.53982329 0.8679694  0.85714325
- 0.7681059  0.68671669 0.75173426 0.10784263 0.50350041 0.92099541
- 0.10418056 0.07165583 0.02886722 0.91776387 0.66545727 0.23566873
- 0.70642986 0.75460767 0.81371458 0.84162506 0.47392832 0.48473499
- 0.50097232 0.14694145 0.40439172 0.09841067 0.38505402 0.1804621
- 0.79522864 0.00442141 0.83262663 0.51059792 0.87664778 0.17238131
- 0.15838019 0.59901852 0.17594289 0.54380258 0.27992142 0.06420887
- 0.9420613  0.89274897 0.24968852 0.87170868 0.76229347 0.11072997
- 0.11960419 0.81138084 0.2881082  0.79639444]
-Valor máximo = 0.9919093605974428 en índice 48
-Valor mínimo = 0.0016218023094975997 en índice 22</t>
+[0.17735258 0.28014733 0.01687048 0.82867524 0.13614357 0.83901141
+ 0.93431107 0.01921858 0.84226026 0.40713047 0.65776585 0.13207604
+ 0.82937608 0.69511679 0.55775821 0.7131577  0.58556147 0.16457379
+ 0.09014882 0.20469375 0.70779848 0.29215783 0.27206692 0.8246616
+ 0.87345926 0.95686466 0.01624051 0.77208821 0.57805129 0.54404179
+ 0.38140985 0.31135725 0.29808767 0.79498645 0.06376631 0.1074469
+ 0.59001457 0.91139353 0.61797368 0.17948584 0.66797286 0.69452347
+ 0.85165503 0.80719356 0.44152279 0.82965167 0.54706457 0.86126733
+ 0.62622326 0.34847765 0.56530552 0.41773411 0.17586329 0.38742642
+ 0.26912129 0.1440808  0.18650588 0.65993067 0.84581664 0.2635029
+ 0.45486139 0.70583215 0.39259239 0.5332499  0.2933307  0.46405862
+ 0.80852098 0.30379772 0.3567037  0.8414951  0.26969576 0.87259709
+ 0.78321292 0.25012014 0.17165947 0.34427522 0.18821019 0.26315224
+ 0.64358636 0.5458843  0.84884782 0.18350896 0.627216   0.13933878
+ 0.03633829 0.60722494 0.28246469 0.11199486 0.09312109 0.57073291
+ 0.76292572 0.03092638 0.54018677 0.20818355 0.51724973 0.02671063
+ 0.0405468  0.48547885 0.31278892 0.97172849]
+Valor máximo = 0.9717284923675186 en índice 99
+Valor mínimo = 0.016240508054067515 en índice 26</t>
   </si>
   <si>
     <t>Array 3x1:
@@ -163,10 +163,10 @@
   </si>
   <si>
     <t>Array:
-[0.23790595 0.71039552 0.77585513 0.09008449 0.07838665 0.93192476
- 0.00716366 0.31206021 0.97798249 0.77441099]
+[0.52419464 0.6111485  0.08020656 0.65672227 0.49771668 0.00184403
+ 0.8608395  0.07190326 0.89569849 0.38480556]
 Elementos &gt; 0.5:
-[0.71039552 0.77585513 0.93192476 0.97798249 0.77441099]</t>
+[0.52419464 0.6111485  0.65672227 0.8608395  0.89569849]</t>
   </si>
   <si>
     <t>Archivo: punto_11_scatter.png</t>
@@ -196,7 +196,7 @@
     <t>Archivo: punto_19_distintos_bins.png</t>
   </si>
   <si>
-    <t>Archivo: punto_20_linea_media.png (Media=-0.02)</t>
+    <t>Archivo: punto_20_linea_media.png (Media=0.01)</t>
   </si>
   <si>
     <t>Archivo: punto_21_hist_superpuestos.png</t>

--- a/actividad2_con_graficos.xlsx
+++ b/actividad2_con_graficos.xlsx
@@ -88,7 +88,7 @@
     <t>[10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29]</t>
   </si>
   <si>
-    <t>arr1=[9 3 8 1 6], arr2=[3 7 1 6 4], producto=[27 21  8  6 24]</t>
+    <t>arr1=[ 1  1  2  7 10], arr2=[8 1 7 4 4], producto=[ 8  1 14 28 40]</t>
   </si>
   <si>
     <t>Matriz:
@@ -105,25 +105,25 @@
   </si>
   <si>
     <t>Array:
-[0.17735258 0.28014733 0.01687048 0.82867524 0.13614357 0.83901141
- 0.93431107 0.01921858 0.84226026 0.40713047 0.65776585 0.13207604
- 0.82937608 0.69511679 0.55775821 0.7131577  0.58556147 0.16457379
- 0.09014882 0.20469375 0.70779848 0.29215783 0.27206692 0.8246616
- 0.87345926 0.95686466 0.01624051 0.77208821 0.57805129 0.54404179
- 0.38140985 0.31135725 0.29808767 0.79498645 0.06376631 0.1074469
- 0.59001457 0.91139353 0.61797368 0.17948584 0.66797286 0.69452347
- 0.85165503 0.80719356 0.44152279 0.82965167 0.54706457 0.86126733
- 0.62622326 0.34847765 0.56530552 0.41773411 0.17586329 0.38742642
- 0.26912129 0.1440808  0.18650588 0.65993067 0.84581664 0.2635029
- 0.45486139 0.70583215 0.39259239 0.5332499  0.2933307  0.46405862
- 0.80852098 0.30379772 0.3567037  0.8414951  0.26969576 0.87259709
- 0.78321292 0.25012014 0.17165947 0.34427522 0.18821019 0.26315224
- 0.64358636 0.5458843  0.84884782 0.18350896 0.627216   0.13933878
- 0.03633829 0.60722494 0.28246469 0.11199486 0.09312109 0.57073291
- 0.76292572 0.03092638 0.54018677 0.20818355 0.51724973 0.02671063
- 0.0405468  0.48547885 0.31278892 0.97172849]
-Valor máximo = 0.9717284923675186 en índice 99
-Valor mínimo = 0.016240508054067515 en índice 26</t>
+[0.16254482 0.72247925 0.61370828 0.39276777 0.66565605 0.67613764
+ 0.33854936 0.51246346 0.62400949 0.28227398 0.4887457  0.52670588
+ 0.92431562 0.23494004 0.94697596 0.26295918 0.19719397 0.70305772
+ 0.85922545 0.51904099 0.90892027 0.1330044  0.0733403  0.83439314
+ 0.24629248 0.87558626 0.0760039  0.7259851  0.47695783 0.24584233
+ 0.22258433 0.84628897 0.17003374 0.8588496  0.05825473 0.69458852
+ 0.63515121 0.2143345  0.92440021 0.98786656 0.48799842 0.36158152
+ 0.28375118 0.39035393 0.86545791 0.81457574 0.74761302 0.36555496
+ 0.06320681 0.84237484 0.04566552 0.64330659 0.29684175 0.38908301
+ 0.65309275 0.92938659 0.08695538 0.83695367 0.17197164 0.08199162
+ 0.16151358 0.3576033  0.49574084 0.82827909 0.20456174 0.0369186
+ 0.60979801 0.92237067 0.75559841 0.36694132 0.24805661 0.54778986
+ 0.8402368  0.8573164  0.97076287 0.92039985 0.57006972 0.42915364
+ 0.84285438 0.3014578  0.93389496 0.90259114 0.07897202 0.46736057
+ 0.80846284 0.10629861 0.42286623 0.12347838 0.51931991 0.9283263
+ 0.20863752 0.10195338 0.42104881 0.56520495 0.41634097 0.28770779
+ 0.75921964 0.77467975 0.23049553 0.76594804]
+Valor máximo = 0.9878665597561014 en índice 39
+Valor mínimo = 0.036918603801766925 en índice 65</t>
   </si>
   <si>
     <t>Array 3x1:
@@ -163,10 +163,10 @@
   </si>
   <si>
     <t>Array:
-[0.52419464 0.6111485  0.08020656 0.65672227 0.49771668 0.00184403
- 0.8608395  0.07190326 0.89569849 0.38480556]
+[0.25694097 0.5464807  0.82598613 0.17812043 0.22748835 0.2330591
+ 0.12092744 0.04152798 0.39748581 0.14356402]
 Elementos &gt; 0.5:
-[0.52419464 0.6111485  0.65672227 0.8608395  0.89569849]</t>
+[0.5464807  0.82598613]</t>
   </si>
   <si>
     <t>Archivo: punto_11_scatter.png</t>
@@ -196,7 +196,7 @@
     <t>Archivo: punto_19_distintos_bins.png</t>
   </si>
   <si>
-    <t>Archivo: punto_20_linea_media.png (Media=0.01)</t>
+    <t>Archivo: punto_20_linea_media.png (Media=-0.00)</t>
   </si>
   <si>
     <t>Archivo: punto_21_hist_superpuestos.png</t>

--- a/actividad2_con_graficos.xlsx
+++ b/actividad2_con_graficos.xlsx
@@ -88,7 +88,7 @@
     <t>[10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29]</t>
   </si>
   <si>
-    <t>arr1=[ 1  1  2  7 10], arr2=[8 1 7 4 4], producto=[ 8  1 14 28 40]</t>
+    <t>arr1=[ 7  4  1 10  5], arr2=[ 6 10  4  8  8], producto=[42 40  4 80 40]</t>
   </si>
   <si>
     <t>Matriz:
@@ -105,25 +105,25 @@
   </si>
   <si>
     <t>Array:
-[0.16254482 0.72247925 0.61370828 0.39276777 0.66565605 0.67613764
- 0.33854936 0.51246346 0.62400949 0.28227398 0.4887457  0.52670588
- 0.92431562 0.23494004 0.94697596 0.26295918 0.19719397 0.70305772
- 0.85922545 0.51904099 0.90892027 0.1330044  0.0733403  0.83439314
- 0.24629248 0.87558626 0.0760039  0.7259851  0.47695783 0.24584233
- 0.22258433 0.84628897 0.17003374 0.8588496  0.05825473 0.69458852
- 0.63515121 0.2143345  0.92440021 0.98786656 0.48799842 0.36158152
- 0.28375118 0.39035393 0.86545791 0.81457574 0.74761302 0.36555496
- 0.06320681 0.84237484 0.04566552 0.64330659 0.29684175 0.38908301
- 0.65309275 0.92938659 0.08695538 0.83695367 0.17197164 0.08199162
- 0.16151358 0.3576033  0.49574084 0.82827909 0.20456174 0.0369186
- 0.60979801 0.92237067 0.75559841 0.36694132 0.24805661 0.54778986
- 0.8402368  0.8573164  0.97076287 0.92039985 0.57006972 0.42915364
- 0.84285438 0.3014578  0.93389496 0.90259114 0.07897202 0.46736057
- 0.80846284 0.10629861 0.42286623 0.12347838 0.51931991 0.9283263
- 0.20863752 0.10195338 0.42104881 0.56520495 0.41634097 0.28770779
- 0.75921964 0.77467975 0.23049553 0.76594804]
-Valor máximo = 0.9878665597561014 en índice 39
-Valor mínimo = 0.036918603801766925 en índice 65</t>
+[0.79782238 0.96645795 0.13012755 0.80379384 0.24725937 0.8387592
+ 0.56840254 0.79583353 0.95296393 0.58119933 0.23051767 0.4557837
+ 0.12433938 0.11056891 0.14750906 0.27855485 0.97607277 0.52801023
+ 0.69112535 0.09844937 0.71009725 0.29104111 0.98832585 0.14047425
+ 0.97659099 0.189067   0.11035449 0.59448893 0.30494521 0.14009514
+ 0.49239564 0.01051858 0.3223827  0.7378556  0.67676875 0.09761341
+ 0.34871742 0.13279663 0.70599235 0.59023088 0.72277075 0.78595384
+ 0.99542101 0.49639557 0.3115135  0.56567236 0.98291127 0.50506633
+ 0.62158457 0.11841666 0.66368411 0.55631018 0.52293248 0.63669895
+ 0.91376709 0.14263128 0.18709837 0.58797737 0.1707366  0.49797844
+ 0.58296208 0.43470643 0.15662524 0.76511684 0.34231796 0.63274907
+ 0.40154471 0.42957534 0.40058707 0.10601221 0.5033219  0.46231907
+ 0.92347491 0.54981316 0.26572156 0.42650018 0.58800931 0.86229875
+ 0.21954393 0.80711091 0.04198468 0.46771791 0.40470313 0.49932392
+ 0.76610637 0.10854431 0.75757834 0.77453484 0.09012347 0.80598122
+ 0.05104852 0.87693968 0.41672446 0.45918244 0.48997594 0.73093612
+ 0.66569174 0.36056703 0.25899366 0.5950196 ]
+Valor máximo = 0.9954210063211809 en índice 42
+Valor mínimo = 0.010518582404017596 en índice 31</t>
   </si>
   <si>
     <t>Array 3x1:
@@ -163,10 +163,11 @@
   </si>
   <si>
     <t>Array:
-[0.25694097 0.5464807  0.82598613 0.17812043 0.22748835 0.2330591
- 0.12092744 0.04152798 0.39748581 0.14356402]
+[0.68527611 0.61138859 0.93227182 0.42141957 0.50351295 0.28139607
+ 0.70383549 0.68601588 0.96006371 0.38560462]
 Elementos &gt; 0.5:
-[0.5464807  0.82598613]</t>
+[0.68527611 0.61138859 0.93227182 0.50351295 0.70383549 0.68601588
+ 0.96006371]</t>
   </si>
   <si>
     <t>Archivo: punto_11_scatter.png</t>
@@ -196,7 +197,7 @@
     <t>Archivo: punto_19_distintos_bins.png</t>
   </si>
   <si>
-    <t>Archivo: punto_20_linea_media.png (Media=-0.00)</t>
+    <t>Archivo: punto_20_linea_media.png (Media=0.01)</t>
   </si>
   <si>
     <t>Archivo: punto_21_hist_superpuestos.png</t>

--- a/actividad2_con_graficos.xlsx
+++ b/actividad2_con_graficos.xlsx
@@ -88,7 +88,7 @@
     <t>[10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29]</t>
   </si>
   <si>
-    <t>arr1=[ 7  4  1 10  5], arr2=[ 6 10  4  8  8], producto=[42 40  4 80 40]</t>
+    <t>arr1=[8 2 5 4 4], arr2=[ 1  3  2 10  2], producto=[ 8  6 10 40  8]</t>
   </si>
   <si>
     <t>Matriz:
@@ -105,25 +105,25 @@
   </si>
   <si>
     <t>Array:
-[0.79782238 0.96645795 0.13012755 0.80379384 0.24725937 0.8387592
- 0.56840254 0.79583353 0.95296393 0.58119933 0.23051767 0.4557837
- 0.12433938 0.11056891 0.14750906 0.27855485 0.97607277 0.52801023
- 0.69112535 0.09844937 0.71009725 0.29104111 0.98832585 0.14047425
- 0.97659099 0.189067   0.11035449 0.59448893 0.30494521 0.14009514
- 0.49239564 0.01051858 0.3223827  0.7378556  0.67676875 0.09761341
- 0.34871742 0.13279663 0.70599235 0.59023088 0.72277075 0.78595384
- 0.99542101 0.49639557 0.3115135  0.56567236 0.98291127 0.50506633
- 0.62158457 0.11841666 0.66368411 0.55631018 0.52293248 0.63669895
- 0.91376709 0.14263128 0.18709837 0.58797737 0.1707366  0.49797844
- 0.58296208 0.43470643 0.15662524 0.76511684 0.34231796 0.63274907
- 0.40154471 0.42957534 0.40058707 0.10601221 0.5033219  0.46231907
- 0.92347491 0.54981316 0.26572156 0.42650018 0.58800931 0.86229875
- 0.21954393 0.80711091 0.04198468 0.46771791 0.40470313 0.49932392
- 0.76610637 0.10854431 0.75757834 0.77453484 0.09012347 0.80598122
- 0.05104852 0.87693968 0.41672446 0.45918244 0.48997594 0.73093612
- 0.66569174 0.36056703 0.25899366 0.5950196 ]
-Valor máximo = 0.9954210063211809 en índice 42
-Valor mínimo = 0.010518582404017596 en índice 31</t>
+[0.08039208 0.11717852 0.01918137 0.98802651 0.52958159 0.16205754
+ 0.4080113  0.96438554 0.0110234  0.89385425 0.38209946 0.8970532
+ 0.02007226 0.93427188 0.00511681 0.24113578 0.49119507 0.34676986
+ 0.71636412 0.24604161 0.96280421 0.49692432 0.9328339  0.95334576
+ 0.28026106 0.59435105 0.54467563 0.21485496 0.89565248 0.95474114
+ 0.85387889 0.06050728 0.19744924 0.73760459 0.97087505 0.19747845
+ 0.5778626  0.82383454 0.77151322 0.72814949 0.87514576 0.60433876
+ 0.71244181 0.36427443 0.36724955 0.71377444 0.22877071 0.57803419
+ 0.1394877  0.70342773 0.91599986 0.21544983 0.19163611 0.92030039
+ 0.6558112  0.0049296  0.24882216 0.62608336 0.68095373 0.86475639
+ 0.481675   0.60947815 0.66757192 0.86990224 0.80240987 0.95010037
+ 0.94136763 0.55817038 0.91965493 0.12508844 0.92494892 0.05332978
+ 0.30093185 0.65320439 0.37423674 0.63317344 0.04415672 0.20801057
+ 0.28393027 0.78991928 0.89132149 0.00897486 0.12827696 0.90869732
+ 0.41764418 0.34414791 0.36656051 0.46761116 0.21043286 0.43234671
+ 0.29850125 0.52012432 0.21001387 0.71640314 0.40062642 0.20434785
+ 0.03484419 0.26796263 0.1806474  0.94675178]
+Valor máximo = 0.9880265084867049 en índice 3
+Valor mínimo = 0.004929595168124967 en índice 55</t>
   </si>
   <si>
     <t>Array 3x1:
@@ -163,11 +163,11 @@
   </si>
   <si>
     <t>Array:
-[0.68527611 0.61138859 0.93227182 0.42141957 0.50351295 0.28139607
- 0.70383549 0.68601588 0.96006371 0.38560462]
+[0.65393414 0.52387121 0.46621109 0.50130434 0.8331136  0.66669428
+ 0.95848285 0.18838265 0.13128991 0.84022178]
 Elementos &gt; 0.5:
-[0.68527611 0.61138859 0.93227182 0.50351295 0.70383549 0.68601588
- 0.96006371]</t>
+[0.65393414 0.52387121 0.50130434 0.8331136  0.66669428 0.95848285
+ 0.84022178]</t>
   </si>
   <si>
     <t>Archivo: punto_11_scatter.png</t>
@@ -197,7 +197,7 @@
     <t>Archivo: punto_19_distintos_bins.png</t>
   </si>
   <si>
-    <t>Archivo: punto_20_linea_media.png (Media=0.01)</t>
+    <t>Archivo: punto_20_linea_media.png (Media=-0.02)</t>
   </si>
   <si>
     <t>Archivo: punto_21_hist_superpuestos.png</t>

--- a/actividad2_con_graficos.xlsx
+++ b/actividad2_con_graficos.xlsx
@@ -88,7 +88,7 @@
     <t>[10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27 28 29]</t>
   </si>
   <si>
-    <t>arr1=[8 2 5 4 4], arr2=[ 1  3  2 10  2], producto=[ 8  6 10 40  8]</t>
+    <t>arr1=[3 1 9 9 5], arr2=[2 4 3 3 6], producto=[ 6  4 27 27 30]</t>
   </si>
   <si>
     <t>Matriz:
@@ -105,25 +105,25 @@
   </si>
   <si>
     <t>Array:
-[0.08039208 0.11717852 0.01918137 0.98802651 0.52958159 0.16205754
- 0.4080113  0.96438554 0.0110234  0.89385425 0.38209946 0.8970532
- 0.02007226 0.93427188 0.00511681 0.24113578 0.49119507 0.34676986
- 0.71636412 0.24604161 0.96280421 0.49692432 0.9328339  0.95334576
- 0.28026106 0.59435105 0.54467563 0.21485496 0.89565248 0.95474114
- 0.85387889 0.06050728 0.19744924 0.73760459 0.97087505 0.19747845
- 0.5778626  0.82383454 0.77151322 0.72814949 0.87514576 0.60433876
- 0.71244181 0.36427443 0.36724955 0.71377444 0.22877071 0.57803419
- 0.1394877  0.70342773 0.91599986 0.21544983 0.19163611 0.92030039
- 0.6558112  0.0049296  0.24882216 0.62608336 0.68095373 0.86475639
- 0.481675   0.60947815 0.66757192 0.86990224 0.80240987 0.95010037
- 0.94136763 0.55817038 0.91965493 0.12508844 0.92494892 0.05332978
- 0.30093185 0.65320439 0.37423674 0.63317344 0.04415672 0.20801057
- 0.28393027 0.78991928 0.89132149 0.00897486 0.12827696 0.90869732
- 0.41764418 0.34414791 0.36656051 0.46761116 0.21043286 0.43234671
- 0.29850125 0.52012432 0.21001387 0.71640314 0.40062642 0.20434785
- 0.03484419 0.26796263 0.1806474  0.94675178]
-Valor máximo = 0.9880265084867049 en índice 3
-Valor mínimo = 0.004929595168124967 en índice 55</t>
+[0.14167646 0.86730171 0.14068534 0.74633917 0.74245359 0.4514813
+ 0.56857421 0.57289386 0.37770671 0.30921943 0.64586387 0.2065403
+ 0.74612749 0.48923339 0.31342107 0.37162961 0.6581376  0.61675658
+ 0.20898195 0.09440125 0.25226668 0.45740584 0.49261738 0.91397052
+ 0.20130494 0.84490121 0.67405102 0.74868733 0.19373577 0.2923426
+ 0.25681881 0.50088075 0.24926385 0.74814549 0.11828384 0.09677511
+ 0.28745724 0.45401824 0.45873255 0.38463432 0.91570594 0.39942172
+ 0.72921028 0.60444609 0.32507826 0.11041362 0.22636536 0.96172115
+ 0.97883187 0.84902492 0.34869695 0.38489029 0.91651067 0.1026972
+ 0.18403594 0.52642492 0.84859245 0.76380911 0.83794024 0.83669672
+ 0.42099777 0.51314141 0.72398853 0.85658743 0.95844335 0.56768484
+ 0.1660512  0.94025597 0.73070028 0.6459744  0.31024276 0.65986072
+ 0.87216158 0.08934928 0.36738092 0.28633135 0.92307519 0.80292061
+ 0.06272053 0.0311831  0.42089062 0.74688055 0.65857366 0.57835254
+ 0.21419113 0.99606552 0.57983544 0.55262702 0.85435535 0.31449055
+ 0.63295084 0.11339554 0.40993797 0.59485922 0.88284898 0.83633427
+ 0.00179672 0.22726769 0.79643984 0.87336884]
+Valor máximo = 0.9960655157930264 en índice 85
+Valor mínimo = 0.0017967159157208368 en índice 96</t>
   </si>
   <si>
     <t>Array 3x1:
@@ -163,11 +163,10 @@
   </si>
   <si>
     <t>Array:
-[0.65393414 0.52387121 0.46621109 0.50130434 0.8331136  0.66669428
- 0.95848285 0.18838265 0.13128991 0.84022178]
+[0.43112732 0.08027723 0.11058554 0.30326783 0.46208413 0.35389987
+ 0.71859038 0.23366007 0.47960874 0.90675912]
 Elementos &gt; 0.5:
-[0.65393414 0.52387121 0.50130434 0.8331136  0.66669428 0.95848285
- 0.84022178]</t>
+[0.71859038 0.90675912]</t>
   </si>
   <si>
     <t>Archivo: punto_11_scatter.png</t>
@@ -197,7 +196,7 @@
     <t>Archivo: punto_19_distintos_bins.png</t>
   </si>
   <si>
-    <t>Archivo: punto_20_linea_media.png (Media=-0.02)</t>
+    <t>Archivo: punto_20_linea_media.png (Media=0.00)</t>
   </si>
   <si>
     <t>Archivo: punto_21_hist_superpuestos.png</t>
